--- a/data/scheduling_DNN/predict/0.9/result15.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result15.xlsx
@@ -570,10 +570,10 @@
         <v>0.9342160224914551</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.3998534381389618</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07886771112680435</v>
+        <v>0.2855433523654938</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.023137807846069</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.8687581419944763</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4157539010047913</v>
+        <v>0.02383308112621307</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9011509418487549</v>
       </c>
       <c r="V4" t="n">
-        <v>0.652911365032196</v>
+        <v>0.8669812083244324</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06162288784980774</v>
+        <v>0.0011675707064569</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.898996114730835</v>
       </c>
       <c r="V5" t="n">
-        <v>0.653493344783783</v>
+        <v>0.4009755551815033</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06027160957455635</v>
+        <v>0.2480244785547256</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.878993034362793</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8695799708366394</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2128520905971527</v>
+        <v>8.860576781444252e-05</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>1.031430959701538</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5229721069335938</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2770263254642487</v>
+        <v>0.2585304081439972</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8685171604156494</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8573839068412781</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1319873780012131</v>
+        <v>0.0001239493285538629</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8606882095336914</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.3997499644756317</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2600297033786774</v>
+        <v>0.2124640643596649</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8683362007141113</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.4020805060863495</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02568300627171993</v>
+        <v>0.2173943668603897</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9071619510650635</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5312661528587341</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004702149890363216</v>
+        <v>0.1412976533174515</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8600330352783203</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5227451324462891</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02585973963141441</v>
+        <v>0.1137631312012672</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8671779632568359</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5666230916976929</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1645599454641342</v>
+        <v>0.0903332307934761</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>1.047449827194214</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8756123781204224</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2731550633907318</v>
+        <v>0.02952810935676098</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>1.682579040527344</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8697435259819031</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7767215967178345</v>
+        <v>0.66070157289505</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>1.150499820709229</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.527591347694397</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1212628930807114</v>
+        <v>0.3880149722099304</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>1.07387113571167</v>
       </c>
       <c r="V17" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5160438418388367</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07372625917196274</v>
+        <v>0.311171293258667</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8718039989471436</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.4004592001438141</v>
       </c>
       <c r="W18" t="n">
-        <v>0.145171269774437</v>
+        <v>0.2221659123897552</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8642990589141846</v>
       </c>
       <c r="V19" t="n">
-        <v>0.490370512008667</v>
+        <v>0.527671754360199</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1398225575685501</v>
+        <v>0.1133179441094398</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8686230182647705</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.4004277288913727</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1524857431650162</v>
+        <v>0.2192068248987198</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9269611835479736</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5148892998695374</v>
       </c>
       <c r="W21" t="n">
-        <v>0.16149041056633</v>
+        <v>0.1698032319545746</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5190451145172119</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8643155694007874</v>
       </c>
       <c r="W22" t="n">
-        <v>0.00326676364056766</v>
+        <v>0.1192116886377335</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5284709930419922</v>
       </c>
       <c r="V23" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5259880423545837</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01228054985404015</v>
+        <v>6.165043942019111e-06</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5294950008392334</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5166146755218506</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01525204163044691</v>
+        <v>0.0001659027766436338</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5208120346069336</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.3990794718265533</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0009021775331348181</v>
+        <v>0.01481881644576788</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5446240901947021</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8838725686073303</v>
       </c>
       <c r="W26" t="n">
-        <v>0.1857350021600723</v>
+        <v>0.1150895282626152</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5196478366851807</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4021590948104858</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02852144651114941</v>
+        <v>0.01380360405892134</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.515826940536499</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.522832989692688</v>
       </c>
       <c r="W28" t="n">
-        <v>0.03364162892103195</v>
+        <v>4.908472328679636e-05</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5127511024475098</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.5110766887664795</v>
       </c>
       <c r="W29" t="n">
-        <v>0.006443683058023453</v>
+        <v>2.803661118377931e-06</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5245919227600098</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.399754673242569</v>
       </c>
       <c r="W30" t="n">
-        <v>0.09571675211191177</v>
+        <v>0.01558433845639229</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5077509880065918</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8599866628646851</v>
       </c>
       <c r="W31" t="n">
-        <v>7.02641045791097e-06</v>
+        <v>0.1240699738264084</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5565359592437744</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.8735617995262146</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0006686692941002548</v>
+        <v>0.1005053818225861</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.51717209815979</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8925644755363464</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08259575068950653</v>
+        <v>0.1409194320440292</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5249598026275635</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.876084566116333</v>
       </c>
       <c r="W34" t="n">
-        <v>7.137482498364989e-07</v>
+        <v>0.1232886016368866</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5187931060791016</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.8684325814247131</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01836427673697472</v>
+        <v>0.1222477629780769</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5074529647827148</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8746119737625122</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02130742929875851</v>
+        <v>0.1348057389259338</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5697779655456543</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8734657764434814</v>
       </c>
       <c r="W37" t="n">
-        <v>0.00198980956338346</v>
+        <v>0.0922262892127037</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5191810131072998</v>
       </c>
       <c r="V38" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5319942831993103</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02837175689637661</v>
+        <v>0.0001641798880882561</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5196759700775146</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4004794061183929</v>
       </c>
       <c r="W39" t="n">
-        <v>0.003119532018899918</v>
+        <v>0.01420782040804625</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5162498950958252</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.4004377722740173</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0208837166428566</v>
+        <v>0.01341244764626026</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5356690883636475</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8722520470619202</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03418546915054321</v>
+        <v>0.113288089632988</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.398123025894165</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8714282512664795</v>
       </c>
       <c r="W42" t="n">
-        <v>0.004011854529380798</v>
+        <v>0.2240178436040878</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4129400253295898</v>
       </c>
       <c r="V43" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8813598155975342</v>
       </c>
       <c r="W43" t="n">
-        <v>0.08720389008522034</v>
+        <v>0.2194170951843262</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.391711950302124</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.3990786671638489</v>
       </c>
       <c r="W44" t="n">
-        <v>0.005152303725481033</v>
+        <v>5.426851566880941e-05</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.388361930847168</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8673318028450012</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0008564900490455329</v>
+        <v>0.2294121384620667</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3913898468017578</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.4021590948104858</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0006838218541815877</v>
+        <v>0.000115976705274079</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.409207820892334</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.4005126059055328</v>
       </c>
       <c r="W47" t="n">
-        <v>0.003416167106479406</v>
+        <v>7.560676021967083e-05</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3926000595092773</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.87371426820755</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03375128284096718</v>
+        <v>0.2314708828926086</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4409110546112061</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.8816679120063782</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1309075802564621</v>
+        <v>0.194266602396965</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3870019912719727</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.8707707524299622</v>
       </c>
       <c r="W50" t="n">
-        <v>0.08958599716424942</v>
+        <v>0.2340322136878967</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3897349834442139</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5219027996063232</v>
       </c>
       <c r="W51" t="n">
-        <v>0.005094311665743589</v>
+        <v>0.01746833138167858</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.398123025894165</v>
       </c>
       <c r="V52" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8689509034156799</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01600698754191399</v>
+        <v>0.2216788828372955</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3910880088806152</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.8741819262504578</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0007056588656269014</v>
+        <v>0.2333797365427017</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3889739513397217</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.5268293619155884</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001458351500332355</v>
+        <v>0.01900411397218704</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4863450527191162</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5220447182655334</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1206728965044022</v>
+        <v>0.001274466165341437</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.4102480411529541</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.866991400718689</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05909351631999016</v>
+        <v>0.2086144983768463</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.4915928840637207</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5213826298713684</v>
       </c>
       <c r="W57" t="n">
-        <v>0.008215070702135563</v>
+        <v>0.0008874289342202246</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4040510654449463</v>
       </c>
       <c r="V58" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8695338368415833</v>
       </c>
       <c r="W58" t="n">
-        <v>0.3268345892429352</v>
+        <v>0.2166742086410522</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4029800891876221</v>
       </c>
       <c r="V59" t="n">
-        <v>0.490907609462738</v>
+        <v>0.509559154510498</v>
       </c>
       <c r="W59" t="n">
-        <v>0.007731248624622822</v>
+        <v>0.01135909743607044</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3911981582641602</v>
       </c>
       <c r="V60" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5654665231704712</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0002040058316197246</v>
+        <v>0.0303694624453783</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4356679916381836</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5163155198097229</v>
       </c>
       <c r="W61" t="n">
-        <v>0.002918567974120378</v>
+        <v>0.006504023913294077</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.891855001449585</v>
       </c>
       <c r="V62" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3998654782772064</v>
       </c>
       <c r="W62" t="n">
-        <v>0.006945126689970493</v>
+        <v>0.2420536875724792</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8526670932769775</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5223379731178284</v>
       </c>
       <c r="W63" t="n">
-        <v>0.06853526830673218</v>
+        <v>0.109117329120636</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8711769580841064</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.880994975566864</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2499049454927444</v>
+        <v>9.63934653555043e-05</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9165539741516113</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.526922345161438</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2966596186161041</v>
+        <v>0.151812806725502</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8673610687255859</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.4025129377841949</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08477382361888885</v>
+        <v>0.2160837799310684</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8583920001983643</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5375843048095703</v>
       </c>
       <c r="W67" t="n">
-        <v>0.07966428250074387</v>
+        <v>0.1029175743460655</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8842980861663818</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5289888381958008</v>
       </c>
       <c r="W68" t="n">
-        <v>0.007095417007803917</v>
+        <v>0.1262446641921997</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9189949035644531</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.39984130859375</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2992597818374634</v>
+        <v>0.2695204615592957</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8635451793670654</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5242664217948914</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1597768068313599</v>
+        <v>0.1151100769639015</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9085090160369873</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5194324851036072</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1475309878587723</v>
+        <v>0.1513805538415909</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8609588146209717</v>
       </c>
       <c r="V72" t="n">
-        <v>0.97564297914505</v>
+        <v>0.4004723727703094</v>
       </c>
       <c r="W72" t="n">
-        <v>0.01315245777368546</v>
+        <v>0.2120477557182312</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.936100959777832</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.3998397290706635</v>
       </c>
       <c r="W73" t="n">
-        <v>0.3426463901996613</v>
+        <v>0.2875760793685913</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8700659275054932</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5242241024971008</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04638662561774254</v>
+        <v>0.1196065694093704</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8739500045776367</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.8690519332885742</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2353722900152206</v>
+        <v>2.399110235273838e-05</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8743538856506348</v>
       </c>
       <c r="V76" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.4010145366191864</v>
       </c>
       <c r="W76" t="n">
-        <v>0.01024605799466372</v>
+        <v>0.2240501344203949</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9369819164276123</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8849301934242249</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1865257322788239</v>
+        <v>0.00270938198082149</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8635709285736084</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.3990548551082611</v>
       </c>
       <c r="W78" t="n">
-        <v>0.03143158182501793</v>
+        <v>0.2157751768827438</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9176139831542969</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.8897674679756165</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0033177281729877</v>
+        <v>0.0007754284306429327</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8652858734130859</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8732257485389709</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2432009428739548</v>
+        <v>6.304161797743291e-05</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9316627979278564</v>
       </c>
       <c r="V81" t="n">
-        <v>0.503772497177124</v>
+        <v>0.8870226740837097</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1830901056528091</v>
+        <v>0.001992740668356419</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5331919193267822</v>
       </c>
       <c r="V82" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.4009620547294617</v>
       </c>
       <c r="W82" t="n">
-        <v>0.08788756281137466</v>
+        <v>0.01748473756015301</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5334839820861816</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.4010008573532104</v>
       </c>
       <c r="W83" t="n">
-        <v>0.003292029025033116</v>
+        <v>0.01755177788436413</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5205249786376953</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.8673722743988037</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1029946878552437</v>
+        <v>0.1203030496835709</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5108470916748047</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.5197316408157349</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02538607083261013</v>
+        <v>7.893521251389757e-05</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5733439922332764</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.874919593334198</v>
       </c>
       <c r="W86" t="n">
-        <v>0.002357659162953496</v>
+        <v>0.09094784408807755</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5197551250457764</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5263758897781372</v>
       </c>
       <c r="W87" t="n">
-        <v>0.03220903128385544</v>
+        <v>4.383452687761746e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5198359489440918</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.3999914228916168</v>
       </c>
       <c r="W88" t="n">
-        <v>0.03218370676040649</v>
+        <v>0.0143627105280757</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5150039196014404</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8664556741714478</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01953729428350925</v>
+        <v>0.1235183328390121</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5433290004730225</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3998816609382629</v>
       </c>
       <c r="W90" t="n">
-        <v>0.001068647019565105</v>
+        <v>0.02057713828980923</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5196390151977539</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5272446274757385</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01040354929864407</v>
+        <v>5.784533641417511e-05</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5240328311920166</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.4021894037723541</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003006068989634514</v>
+        <v>0.01484582107514143</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5175600051879883</v>
       </c>
       <c r="V93" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8750477433204651</v>
       </c>
       <c r="W93" t="n">
-        <v>0.2097730189561844</v>
+        <v>0.1277974843978882</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5143780708312988</v>
       </c>
       <c r="V94" t="n">
-        <v>0.838257908821106</v>
+        <v>0.508354663848877</v>
       </c>
       <c r="W94" t="n">
-        <v>0.1048981472849846</v>
+        <v>3.62814316758886e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5149929523468018</v>
       </c>
       <c r="V95" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5135717391967773</v>
       </c>
       <c r="W95" t="n">
-        <v>0.03729743137955666</v>
+        <v>2.019846760958899e-06</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5215640068054199</v>
       </c>
       <c r="V96" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4004369974136353</v>
       </c>
       <c r="W96" t="n">
-        <v>0.03313117474317551</v>
+        <v>0.01467175222933292</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5747840404510498</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8709959387779236</v>
       </c>
       <c r="W97" t="n">
-        <v>0.05091440305113792</v>
+        <v>0.08774148672819138</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5212631225585938</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5053605437278748</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01749294996261597</v>
+        <v>0.0002528920012991875</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5213749408721924</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.400479793548584</v>
       </c>
       <c r="W99" t="n">
-        <v>0.003748697228729725</v>
+        <v>0.01461563631892204</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5110199451446533</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8864148855209351</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0001817411393858492</v>
+        <v>0.1409213542938232</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5170350074768066</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8761916756629944</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01862564496695995</v>
+        <v>0.1289935111999512</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4043970108032227</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.4004452228546143</v>
       </c>
       <c r="W102" t="n">
-        <v>0.02953046560287476</v>
+        <v>1.561662793392316e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4082710742950439</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.5284463763237</v>
       </c>
       <c r="W103" t="n">
-        <v>0.03476424887776375</v>
+        <v>0.01444210298359394</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4041609764099121</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.4020662605762482</v>
       </c>
       <c r="W104" t="n">
-        <v>0.06235307082533836</v>
+        <v>4.387834451335948e-06</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4179270267486572</v>
       </c>
       <c r="V105" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5163977146148682</v>
       </c>
       <c r="W105" t="n">
-        <v>0.1732714921236038</v>
+        <v>0.00969647616147995</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3927009105682373</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8642480969429016</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0006224563112482429</v>
+        <v>0.2223567515611649</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3849389553070068</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.516602635383606</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0721554309129715</v>
+        <v>0.01733532547950745</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3877031803131104</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5270030498504639</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01058994326740503</v>
+        <v>0.0194044541567564</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3920080661773682</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.3990496397018433</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01266093365848064</v>
+        <v>4.958375939168036e-05</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3860921859741211</v>
       </c>
       <c r="V110" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4977695941925049</v>
       </c>
       <c r="W110" t="n">
-        <v>0.3480847775936127</v>
+        <v>0.01247184351086617</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3943908214569092</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.8859695792198181</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01723345369100571</v>
+        <v>0.2416496723890305</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4013011455535889</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5267240405082703</v>
       </c>
       <c r="W112" t="n">
-        <v>0.007942125201225281</v>
+        <v>0.01573090255260468</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3926570415496826</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.5174755454063416</v>
       </c>
       <c r="W113" t="n">
-        <v>0.01264551281929016</v>
+        <v>0.01557965856045485</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3947079181671143</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.4004660844802856</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01209735404700041</v>
+        <v>3.315648064017296e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4087910652160645</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.400983601808548</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001427068491466343</v>
+        <v>6.095648495829664e-05</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3934228420257568</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.3991025388240814</v>
       </c>
       <c r="W116" t="n">
-        <v>0.009387822821736336</v>
+        <v>3.225895488867536e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3939089775085449</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5273513197898865</v>
       </c>
       <c r="W117" t="n">
-        <v>0.009301573969423771</v>
+        <v>0.01780685782432556</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4036209583282471</v>
       </c>
       <c r="V118" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.8704333901405334</v>
       </c>
       <c r="W118" t="n">
-        <v>0.3271365165710449</v>
+        <v>0.2179138511419296</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3935999870300293</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5227054357528687</v>
       </c>
       <c r="W119" t="n">
-        <v>1.631656596146058e-05</v>
+        <v>0.01666821725666523</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3945310115814209</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5262742638587952</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1681940704584122</v>
+        <v>0.01735628396272659</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4476549625396729</v>
       </c>
       <c r="V121" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5167449712753296</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1258564740419388</v>
+        <v>0.004773429129272699</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8787319660186768</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5186970233917236</v>
       </c>
       <c r="W122" t="n">
-        <v>0.08298876881599426</v>
+        <v>0.1296251565217972</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9190449714660645</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.399882584810257</v>
       </c>
       <c r="W123" t="n">
-        <v>0.07035530358552933</v>
+        <v>0.2695296108722687</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8951570987701416</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.5163109302520752</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2963833510875702</v>
+        <v>0.1435244232416153</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9362971782684326</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.3990725874900818</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1876886785030365</v>
+        <v>0.2886102497577667</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8745379447937012</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8637146949768066</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1359416395425797</v>
+        <v>0.0001171427356894128</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8713929653167725</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8739566206932068</v>
       </c>
       <c r="W127" t="n">
-        <v>0.120416447520256</v>
+        <v>6.572328857146204e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8622910976409912</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.8893401026725769</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1277109831571579</v>
+        <v>0.0007316486444324255</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9231250286102295</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8807317614555359</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1574450731277466</v>
+        <v>0.001797189121134579</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8806638717651367</v>
       </c>
       <c r="V130" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4021596014499664</v>
       </c>
       <c r="W130" t="n">
-        <v>0.009012099355459213</v>
+        <v>0.2289663404226303</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8681390285491943</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.3990662395954132</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1322630196809769</v>
+        <v>0.220029279589653</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8684329986572266</v>
       </c>
       <c r="V132" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4010002017021179</v>
       </c>
       <c r="W132" t="n">
-        <v>0.04583745822310448</v>
+        <v>0.2184934169054031</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9257500171661377</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5265121459960938</v>
       </c>
       <c r="W133" t="n">
-        <v>0.299643874168396</v>
+        <v>0.1593908816576004</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8819799423217773</v>
       </c>
       <c r="V134" t="n">
-        <v>0.505433976650238</v>
+        <v>0.5115193724632263</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1417868584394455</v>
+        <v>0.1372410356998444</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8689720630645752</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.399073988199234</v>
       </c>
       <c r="W135" t="n">
-        <v>0.04607581347227097</v>
+        <v>0.2208041995763779</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8602099418640137</v>
       </c>
       <c r="V136" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8753837943077087</v>
       </c>
       <c r="W136" t="n">
-        <v>0.01342066377401352</v>
+        <v>0.0002302458015037701</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9167518615722656</v>
       </c>
       <c r="V137" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.5240288376808167</v>
       </c>
       <c r="W137" t="n">
-        <v>0.003454655641689897</v>
+        <v>0.1542313694953918</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8670730590820312</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.3998370170593262</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2020753771066666</v>
+        <v>0.2183095216751099</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.898280143737793</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8735881447792053</v>
       </c>
       <c r="W139" t="n">
-        <v>0.3038750290870667</v>
+        <v>0.0006096948054619133</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8690590858459473</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.8924891948699951</v>
       </c>
       <c r="W140" t="n">
-        <v>0.03105342574417591</v>
+        <v>0.000548970012459904</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9196600914001465</v>
       </c>
       <c r="V141" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.8842176198959351</v>
       </c>
       <c r="W141" t="n">
-        <v>0.006563998758792877</v>
+        <v>0.001256168819963932</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5304038524627686</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.5189703702926636</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01470725145190954</v>
+        <v>0.0001307245111092925</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5233049392700195</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.5123293995857239</v>
       </c>
       <c r="W143" t="n">
-        <v>0.000351024471456185</v>
+        <v>0.0001204624713864177</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5133450031280518</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.5281180143356323</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01807400211691856</v>
+        <v>0.0002182418538723141</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.51951003074646</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.3990341126918793</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01040859613567591</v>
+        <v>0.0145144471898675</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5838971138000488</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8750258684158325</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02763477899134159</v>
+        <v>0.08475594967603683</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5452451705932617</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.8875085115432739</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0374002493917942</v>
+        <v>0.1171441972255707</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5272109508514404</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5277779698371887</v>
       </c>
       <c r="W148" t="n">
-        <v>0.07465405762195587</v>
+        <v>3.21510526646307e-07</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.524381160736084</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4019785523414612</v>
       </c>
       <c r="W149" t="n">
-        <v>0.03050933219492435</v>
+        <v>0.01498239859938622</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5232939720153809</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8681420683860779</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0168945137411356</v>
+        <v>0.1189202070236206</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5598330497741699</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.4010035693645477</v>
       </c>
       <c r="W151" t="n">
-        <v>0.02021312527358532</v>
+        <v>0.02522680349647999</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5201730728149414</v>
       </c>
       <c r="V152" t="n">
-        <v>0.372467577457428</v>
+        <v>0.3990772366523743</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0218169130384922</v>
+        <v>0.01466420199722052</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5201010704040527</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5181654095649719</v>
       </c>
       <c r="W153" t="n">
-        <v>3.746639413293451e-05</v>
+        <v>3.746782795133186e-06</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.510624885559082</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8889274001121521</v>
       </c>
       <c r="W154" t="n">
-        <v>0.002222418552264571</v>
+        <v>0.1431127935647964</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5118319988250732</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.5169597864151001</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01773226633667946</v>
+        <v>2.629420487210155e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5222499370574951</v>
       </c>
       <c r="V156" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5139719247817993</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0009870118228718638</v>
+        <v>6.852548540337011e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.523853063583374</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.4009990394115448</v>
       </c>
       <c r="W157" t="n">
-        <v>0.00389264221303165</v>
+        <v>0.01509311143308878</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5236880779266357</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.5165238976478577</v>
       </c>
       <c r="W158" t="n">
-        <v>0.09635838121175766</v>
+        <v>5.132547812536359e-05</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5220818519592285</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.5258435606956482</v>
       </c>
       <c r="W159" t="n">
-        <v>0.02934865094721317</v>
+        <v>1.415045244357316e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5117719173431396</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8759453892707825</v>
       </c>
       <c r="W160" t="n">
-        <v>0.002301446627825499</v>
+        <v>0.1326223164796829</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5250449180603027</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.4023834764957428</v>
       </c>
       <c r="W161" t="n">
-        <v>2.338999962603339e-07</v>
+        <v>0.01504582911729813</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.452146053314209</v>
       </c>
       <c r="V162" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.874383807182312</v>
       </c>
       <c r="W162" t="n">
-        <v>0.005281411577016115</v>
+        <v>0.1782847195863724</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3948590755462646</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5665517449378967</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0002886238507926464</v>
+        <v>0.02947837300598621</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3956458568572998</v>
       </c>
       <c r="V164" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5323850512504578</v>
       </c>
       <c r="W164" t="n">
-        <v>0.03265300765633583</v>
+        <v>0.01869760639965534</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3893918991088867</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.4021753966808319</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01838159747421741</v>
+        <v>0.0001634178042877465</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3954849243164062</v>
       </c>
       <c r="V166" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.400492399930954</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1654308885335922</v>
+        <v>2.507481258362532e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3912448883056641</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.402468353509903</v>
       </c>
       <c r="W167" t="n">
-        <v>0.06857381761074066</v>
+        <v>0.0001259661657968536</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3842470645904541</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.881966233253479</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01458600629121065</v>
+        <v>0.2477243691682816</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3982760906219482</v>
       </c>
       <c r="V169" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.8599216341972351</v>
       </c>
       <c r="W169" t="n">
-        <v>0.192603588104248</v>
+        <v>0.2131166011095047</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.389739990234375</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.4020075500011444</v>
       </c>
       <c r="W170" t="n">
-        <v>0.000132190398289822</v>
+        <v>0.0001504930260125548</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3926849365234375</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.5245997309684753</v>
       </c>
       <c r="W171" t="n">
-        <v>0.03607723861932755</v>
+        <v>0.01740151271224022</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.408423900604248</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8736477494239807</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003032335313037038</v>
+        <v>0.2164332270622253</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3917689323425293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5179203152656555</v>
       </c>
       <c r="W173" t="n">
-        <v>0.00168243795633316</v>
+        <v>0.01591417193412781</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4104421138763428</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5215710401535034</v>
       </c>
       <c r="W174" t="n">
-        <v>0.05842640623450279</v>
+        <v>0.01234963815659285</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3913750648498535</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.4009645581245422</v>
       </c>
       <c r="W175" t="n">
-        <v>0.009855465032160282</v>
+        <v>9.195838356390595e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3909420967102051</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8659621477127075</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03435404971241951</v>
+        <v>0.225644052028656</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4081809520721436</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.3999683856964111</v>
       </c>
       <c r="W177" t="n">
-        <v>0.000889630289748311</v>
+        <v>6.74462498864159e-05</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4007999897003174</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.5321424007415771</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0002835709019564092</v>
+        <v>0.01725082844495773</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3890790939331055</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5234390497207642</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03494719415903091</v>
+        <v>0.01805259846150875</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3854598999023438</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.3990551829338074</v>
       </c>
       <c r="W180" t="n">
-        <v>0.001204828964546323</v>
+        <v>0.0001848317187977955</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4406321048736572</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.3993244171142578</v>
       </c>
       <c r="W181" t="n">
-        <v>0.007248005829751492</v>
+        <v>0.001706325099803507</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8876419067382812</v>
       </c>
       <c r="V182" t="n">
-        <v>0.975210964679718</v>
+        <v>0.3990420699119568</v>
       </c>
       <c r="W182" t="n">
-        <v>0.007668340113013983</v>
+        <v>0.2387298047542572</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8974142074584961</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.400473415851593</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1540685445070267</v>
+        <v>0.2469501495361328</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8578159809112549</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5164331197738647</v>
       </c>
       <c r="W184" t="n">
-        <v>0.04157561436295509</v>
+        <v>0.1165422573685646</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9330511093139648</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8740637302398682</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1955565512180328</v>
+        <v>0.003479510778561234</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8710827827453613</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8741698861122131</v>
       </c>
       <c r="W186" t="n">
-        <v>0.004986519459635019</v>
+        <v>9.53020753513556e-06</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8778951168060303</v>
       </c>
       <c r="V187" t="n">
-        <v>0.655465304851532</v>
+        <v>0.3998952507972717</v>
       </c>
       <c r="W187" t="n">
-        <v>0.04947502166032791</v>
+        <v>0.2284838706254959</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8687150478363037</v>
       </c>
       <c r="V188" t="n">
-        <v>0.699232816696167</v>
+        <v>0.3990699946880341</v>
       </c>
       <c r="W188" t="n">
-        <v>0.02872422710061073</v>
+        <v>0.2205664813518524</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.927595853805542</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.4023891389369965</v>
       </c>
       <c r="W189" t="n">
-        <v>0.07565357536077499</v>
+        <v>0.2758420705795288</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8717000484466553</v>
       </c>
       <c r="V190" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.86677086353302</v>
       </c>
       <c r="W190" t="n">
-        <v>0.04788139835000038</v>
+        <v>2.429686355753802e-05</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8704040050506592</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8609994649887085</v>
       </c>
       <c r="W191" t="n">
-        <v>0.08655069768428802</v>
+        <v>8.844537660479546e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8678629398345947</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5455350875854492</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1070988848805428</v>
+        <v>0.1038952469825745</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9243161678314209</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5241701602935791</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2567259669303894</v>
+        <v>0.1601168215274811</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8541500568389893</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.5216208100318909</v>
       </c>
       <c r="W194" t="n">
-        <v>0.190512403845787</v>
+        <v>0.1105756983160973</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8472039699554443</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.8758421540260315</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1488092243671417</v>
+        <v>0.0008201455930247903</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.864548921585083</v>
       </c>
       <c r="V196" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8667849898338318</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2426827996969223</v>
+        <v>5.000001237931428e-06</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9104290008544922</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5188450217247009</v>
       </c>
       <c r="W197" t="n">
-        <v>0.06742759048938751</v>
+        <v>0.1533380150794983</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8812351226806641</v>
       </c>
       <c r="V198" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8866623044013977</v>
       </c>
       <c r="W198" t="n">
-        <v>0.05183067545294762</v>
+        <v>2.945430060208309e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8686490058898926</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.3990641236305237</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08187133818864822</v>
+        <v>0.2205099612474442</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8651061058044434</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.3991004228591919</v>
       </c>
       <c r="W200" t="n">
-        <v>0.08005300164222717</v>
+        <v>0.2171612977981567</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9043800830841064</v>
       </c>
       <c r="V201" t="n">
-        <v>0.708076536655426</v>
+        <v>0.87978196144104</v>
       </c>
       <c r="W201" t="n">
-        <v>0.03853508085012436</v>
+        <v>0.0006050675874575973</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5277149677276611</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8635557293891907</v>
       </c>
       <c r="W202" t="n">
-        <v>0.004075640812516212</v>
+        <v>0.1127890199422836</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5076601505279541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5135571360588074</v>
       </c>
       <c r="W203" t="n">
-        <v>0.00634869746863842</v>
+        <v>3.477443897281773e-05</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5385959148406982</v>
       </c>
       <c r="V204" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.4020715951919556</v>
       </c>
       <c r="W204" t="n">
-        <v>0.07043050974607468</v>
+        <v>0.01863889023661613</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5260140895843506</v>
       </c>
       <c r="V205" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8778491020202637</v>
       </c>
       <c r="W205" t="n">
-        <v>0.2021519392728806</v>
+        <v>0.1237878724932671</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5665910243988037</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8756410479545593</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0566655807197094</v>
+        <v>0.09551192075014114</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.517657995223999</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8676593899726868</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0007380114984698594</v>
+        <v>0.122500978410244</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.518867015838623</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8706035614013672</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0007928231498226523</v>
+        <v>0.1237185969948769</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5236029624938965</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4004603326320648</v>
       </c>
       <c r="W209" t="n">
-        <v>9.563538014845108e-07</v>
+        <v>0.01516410708427429</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5124869346618652</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.3990924656391144</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0001519685320090503</v>
+        <v>0.01285830605775118</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5741550922393799</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8895153403282166</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01268493477255106</v>
+        <v>0.09945208579301834</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5272829532623291</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8708252310752869</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01202431507408619</v>
+        <v>0.1180212944746017</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.525108814239502</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8685079216957092</v>
       </c>
       <c r="W213" t="n">
-        <v>0.003797453828155994</v>
+        <v>0.1179229468107224</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5241210460662842</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.8866806030273438</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0113400537520647</v>
+        <v>0.131449431180954</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5155990123748779</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5205303430557251</v>
       </c>
       <c r="W215" t="n">
-        <v>0.08178956061601639</v>
+        <v>2.431802204228006e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5260879993438721</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5179731249809265</v>
       </c>
       <c r="W216" t="n">
-        <v>0.001239598146639764</v>
+        <v>6.585118535440415e-05</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5229108333587646</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.8648754954338074</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01109737064689398</v>
+        <v>0.1169398277997971</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5236771106719971</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8870758414268494</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0003946551878470927</v>
+        <v>0.1320586353540421</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.534160852432251</v>
       </c>
       <c r="V219" t="n">
-        <v>0.371780127286911</v>
+        <v>0.3998460173606873</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02636750042438507</v>
+        <v>0.01804047450423241</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5615971088409424</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.3998573422431946</v>
       </c>
       <c r="W220" t="n">
-        <v>0.003346609184518456</v>
+        <v>0.02615975216031075</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5339498519897461</v>
       </c>
       <c r="V221" t="n">
-        <v>0.800457239151001</v>
+        <v>0.5215913653373718</v>
       </c>
       <c r="W221" t="n">
-        <v>0.07102619111537933</v>
+        <v>0.0001527321874164045</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.5127260684967041</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8715784549713135</v>
       </c>
       <c r="W222" t="n">
-        <v>0.02588123269379139</v>
+        <v>0.128775030374527</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4981389045715332</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.8587273359298706</v>
       </c>
       <c r="W223" t="n">
-        <v>5.341392534319311e-05</v>
+        <v>0.1300240159034729</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.5041730403900146</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8776524662971497</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01744393445551395</v>
+        <v>0.1394868791103363</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4970219135284424</v>
       </c>
       <c r="V225" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.4004367291927338</v>
       </c>
       <c r="W225" t="n">
-        <v>0.09354522824287415</v>
+        <v>0.009328697808086872</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.476809024810791</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.399847000837326</v>
       </c>
       <c r="W226" t="n">
-        <v>0.002282806672155857</v>
+        <v>0.00592315336689353</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.5442709922790527</v>
       </c>
       <c r="V227" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5177015066146851</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1856838762760162</v>
+        <v>0.0007059375639073551</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3988668918609619</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.8863731026649475</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06500399112701416</v>
+        <v>0.2376623004674911</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4218258857727051</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.5226139426231384</v>
       </c>
       <c r="W229" t="n">
-        <v>0.001764219952747226</v>
+        <v>0.01015823241323233</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3961429595947266</v>
       </c>
       <c r="V230" t="n">
-        <v>0.490329772233963</v>
+        <v>0.3998473584651947</v>
       </c>
       <c r="W230" t="n">
-        <v>0.008871155790984631</v>
+        <v>1.372257065668236e-05</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3879220485687256</v>
       </c>
       <c r="V231" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8662267923355103</v>
       </c>
       <c r="W231" t="n">
-        <v>0.1737269312143326</v>
+        <v>0.2287754267454147</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3898341655731201</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.3990561068058014</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01820900477468967</v>
+        <v>8.504420111421496e-05</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4767980575561523</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.5235120058059692</v>
       </c>
       <c r="W233" t="n">
-        <v>0.0002456629008520395</v>
+        <v>0.002182192867621779</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3968770503997803</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5213786959648132</v>
       </c>
       <c r="W234" t="n">
-        <v>0.008849420584738255</v>
+        <v>0.01550066005438566</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.5526659488677979</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5126498937606812</v>
       </c>
       <c r="W235" t="n">
-        <v>0.002406601561233401</v>
+        <v>0.001601284719072282</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4154059886932373</v>
       </c>
       <c r="V236" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.3993300497531891</v>
       </c>
       <c r="W236" t="n">
-        <v>0.1482955813407898</v>
+        <v>0.000258435815339908</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4641330242156982</v>
       </c>
       <c r="V237" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.3990761935710907</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1336254328489304</v>
+        <v>0.004232391249388456</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3935520648956299</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5198644399642944</v>
       </c>
       <c r="W238" t="n">
-        <v>0.002155821537598968</v>
+        <v>0.01595481671392918</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4480860233306885</v>
       </c>
       <c r="V239" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.3998866379261017</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1252737790346146</v>
+        <v>0.002323180669918656</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3876211643218994</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5233091711997986</v>
       </c>
       <c r="W240" t="n">
-        <v>0.09307147562503815</v>
+        <v>0.01841123588383198</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4005320072174072</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8818403482437134</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06390973180532455</v>
+        <v>0.2316577136516571</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8907570838928223</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8691340088844299</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1602715104818344</v>
+        <v>0.000467557372758165</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9215109348297119</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.3998990058898926</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2540139555931091</v>
+        <v>0.2720789909362793</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9344489574432373</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.3990429639816284</v>
       </c>
       <c r="W244" t="n">
-        <v>0.3162371516227722</v>
+        <v>0.2866595685482025</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8702609539031982</v>
       </c>
       <c r="V245" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8616673350334167</v>
       </c>
       <c r="W245" t="n">
-        <v>0.001308795413933694</v>
+        <v>7.385028584394604e-05</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8737151622772217</v>
       </c>
       <c r="V246" t="n">
-        <v>0.590633749961853</v>
+        <v>0.5171867609024048</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08013508468866348</v>
+        <v>0.1271125078201294</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8750300407409668</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.3998672664165497</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1709980815649033</v>
+        <v>0.2257796674966812</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.87123703956604</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.3990414142608643</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2709151804447174</v>
+        <v>0.2229687124490738</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8923168182373047</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5237387418746948</v>
       </c>
       <c r="W249" t="n">
-        <v>0.03978989273309708</v>
+        <v>0.135849803686142</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8733329772949219</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.3990607559680939</v>
       </c>
       <c r="W250" t="n">
-        <v>0.030314851552248</v>
+        <v>0.2249341458082199</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8789520263671875</v>
       </c>
       <c r="V251" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8871432542800903</v>
       </c>
       <c r="W251" t="n">
-        <v>0.03075247630476952</v>
+        <v>6.709621811751276e-05</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8781900405883789</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.3990634083747864</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2821240425109863</v>
+        <v>0.2295623272657394</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8753659725189209</v>
       </c>
       <c r="V253" t="n">
-        <v>0.417630136013031</v>
+        <v>0.5235637426376343</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2095220983028412</v>
+        <v>0.123764805495739</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8675529956817627</v>
       </c>
       <c r="V254" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.3997532725334167</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2670536935329437</v>
+        <v>0.2188365757465363</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8903629779815674</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5167707800865173</v>
       </c>
       <c r="W255" t="n">
-        <v>0.08741971105337143</v>
+        <v>0.1395711302757263</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8723328113555908</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8813946843147278</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1354784220457077</v>
+        <v>8.211754175135866e-05</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8755631446838379</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.4004672169685364</v>
       </c>
       <c r="W257" t="n">
-        <v>0.005359556060284376</v>
+        <v>0.2257161438465118</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8796830177307129</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5167356729507446</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1515487432479858</v>
+        <v>0.131730780005455</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9068310260772705</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5162303447723389</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1092982292175293</v>
+        <v>0.1525688916444778</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8710601329803467</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5178553462028503</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1453419476747513</v>
+        <v>0.1247536242008209</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8845589160919189</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.4004484713077545</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2180221527814865</v>
+        <v>0.234362930059433</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5159790515899658</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8763135075569153</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02729940786957741</v>
+        <v>0.1298409253358841</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5493819713592529</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5239524841308594</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0314633883535862</v>
+        <v>0.0006466588238254189</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5774469375610352</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.5231859683990479</v>
       </c>
       <c r="W264" t="n">
-        <v>9.287058492191136e-05</v>
+        <v>0.002944252686575055</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5230410099029541</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.3990605473518372</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01705619879066944</v>
+        <v>0.01537115499377251</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5269298553466797</v>
       </c>
       <c r="V266" t="n">
-        <v>0.417632520198822</v>
+        <v>0.401003509759903</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01194590702652931</v>
+        <v>0.01585744507610798</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5256891250610352</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.4004487097263336</v>
       </c>
       <c r="W267" t="n">
-        <v>0.03034380078315735</v>
+        <v>0.01568516157567501</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5385298728942871</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8699232935905457</v>
       </c>
       <c r="W268" t="n">
-        <v>0.005581977777183056</v>
+        <v>0.1098216027021408</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5855391025543213</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.3998814523220062</v>
       </c>
       <c r="W269" t="n">
-        <v>0.008989887312054634</v>
+        <v>0.03446876257658005</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5242531299591064</v>
       </c>
       <c r="V270" t="n">
-        <v>0.417652815580368</v>
+        <v>0.3990851938724518</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01136362738907337</v>
+        <v>0.0156670119613409</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5193619728088379</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.8757110834121704</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01819641143083572</v>
+        <v>0.1269846856594086</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5350341796875</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.4004629552364349</v>
       </c>
       <c r="W272" t="n">
-        <v>0.0339607372879982</v>
+        <v>0.01810941472649574</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5204010009765625</v>
       </c>
       <c r="V273" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4004716575145721</v>
       </c>
       <c r="W273" t="n">
-        <v>0.100988082587719</v>
+        <v>0.01438304781913757</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5391111373901367</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.4010351598262787</v>
       </c>
       <c r="W274" t="n">
-        <v>0.002328001195564866</v>
+        <v>0.01906497590243816</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5268139839172363</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.8665892481803894</v>
       </c>
       <c r="W275" t="n">
-        <v>4.076072400494013e-06</v>
+        <v>0.1154472306370735</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5247821807861328</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8665229678153992</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01147399377077818</v>
+        <v>0.1167867630720139</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5290441513061523</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4004190266132355</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01556876860558987</v>
+        <v>0.01654442213475704</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5167069435119629</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5278216004371643</v>
       </c>
       <c r="W278" t="n">
-        <v>0.08203214406967163</v>
+        <v>0.0001235356030520052</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.52783203125</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.3990977704524994</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01576212234795094</v>
+        <v>0.01657251082360744</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5797691345214844</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.5204414129257202</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01407524570822716</v>
+        <v>0.003519778605550528</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5262019634246826</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.402058333158493</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02771894633769989</v>
+        <v>0.01541164051741362</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4189000129699707</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8734470009803772</v>
       </c>
       <c r="W282" t="n">
-        <v>0.005017904564738274</v>
+        <v>0.2066129595041275</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4142658710479736</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.5165899991989136</v>
       </c>
       <c r="W283" t="n">
-        <v>1.129222528106766e-05</v>
+        <v>0.01047022733837366</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.403770923614502</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8731589317321777</v>
       </c>
       <c r="W284" t="n">
-        <v>0.003610497107729316</v>
+        <v>0.2203250974416733</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4019989967346191</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.400434821844101</v>
       </c>
       <c r="W285" t="n">
-        <v>0.004515415988862514</v>
+        <v>2.446643065923126e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4558260440826416</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.5166165232658386</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01435179077088833</v>
+        <v>0.003695482388138771</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3996250629425049</v>
       </c>
       <c r="V287" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.4009601771831512</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0007625262951478362</v>
+        <v>1.782530034688534e-06</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4017519950866699</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.4001736342906952</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0002493311767466366</v>
+        <v>2.491222858225228e-06</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4000520706176758</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8645979166030884</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0110399043187499</v>
+        <v>0.2158028483390808</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3912990093231201</v>
       </c>
       <c r="V290" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5207405090332031</v>
       </c>
       <c r="W290" t="n">
-        <v>0.001644185977056623</v>
+        <v>0.01675510220229626</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3927931785583496</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.4004049897193909</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01243323925882578</v>
+        <v>5.7939669204643e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4574050903320312</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5211195945739746</v>
       </c>
       <c r="W292" t="n">
-        <v>0.004554575774818659</v>
+        <v>0.004059538245201111</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4018609523773193</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.5193480849266052</v>
       </c>
       <c r="W293" t="n">
-        <v>0.03431062400341034</v>
+        <v>0.01380322594195604</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3922829627990723</v>
       </c>
       <c r="V294" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3997637331485748</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0006441482109948993</v>
+        <v>5.596192568191327e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4058198928833008</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5160149335861206</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0007420359179377556</v>
+        <v>0.01214294694364071</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4023680686950684</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8976005911827087</v>
       </c>
       <c r="W296" t="n">
-        <v>0.08429662883281708</v>
+        <v>0.245255246758461</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4331111907958984</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.4010238945484161</v>
       </c>
       <c r="W297" t="n">
-        <v>0.04839993268251419</v>
+        <v>0.001029594568535686</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4511008262634277</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5165625214576721</v>
       </c>
       <c r="W298" t="n">
-        <v>0.001125586102716625</v>
+        <v>0.004285233560949564</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4044609069824219</v>
       </c>
       <c r="V299" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8757668137550354</v>
       </c>
       <c r="W299" t="n">
-        <v>0.157748281955719</v>
+        <v>0.2221292555332184</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3995659351348877</v>
       </c>
       <c r="V300" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5162935853004456</v>
       </c>
       <c r="W300" t="n">
-        <v>0.09515830874443054</v>
+        <v>0.01362534426152706</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.39894700050354</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.8726570606231689</v>
       </c>
       <c r="W301" t="n">
-        <v>0.002234030282124877</v>
+        <v>0.2244012206792831</v>
       </c>
     </row>
     <row r="302" spans="1:23">
